--- a/data/trans_dic/P23_12_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_12_R-Urba-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,298 +485,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 92,95%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Mz2</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Mz2</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Mz2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Urbano</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>18,42; 25,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>20,39; 26,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>20,26; 24,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,3%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>13,9; 25,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>13,39; 23,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>15,31; 22,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>21,04%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>22,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>21,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>17,93; 24,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 25,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>19,69; 23,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 92,95%)</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 89,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -844,69 +560,51 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>190.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>320.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.2172472889622271</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2334229080221518</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2255875114039626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>43523</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>49843</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>93366</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.1849110839249755</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.2040006664467165</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2033085824806833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>36999; 51118</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>43625; 56078</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>84060; 103402</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.2556184208519061</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2623202434733279</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2492473488980157</v>
       </c>
     </row>
     <row r="7">
@@ -917,69 +615,51 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.1926776934609493</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1828157096720327</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1879399392630869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12556</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11102</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23659</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.1403667879293361</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.133535174546625</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1536639385073524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>9128; 16513</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8124; 14248</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>19340; 28707</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.2523912165589955</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2347772086024879</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2275977388632313</v>
       </c>
     </row>
     <row r="10">
@@ -990,70 +670,34 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1063,69 +707,51 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>231.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>403.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.211190445765347</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2222237077834414</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2167884784366306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>56079</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>60946</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>117025</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1802021197737924</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1997078693905011</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1974531512285309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>47806; 64521</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>54790; 68738</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>106584; 129469</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2425220052710294</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2508258916671078</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2390750884504973</v>
       </c>
     </row>
     <row r="16">
@@ -1145,4 +771,366 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 89,35%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>43647</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>49918</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>93564</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>37150</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>43626</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>84324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>51356</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>56098</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>103378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>12665</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>11110</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>23775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>9226</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>8115</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>19439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>16590</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>14268</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>28792</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>231</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>56311</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>61028</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>117340</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>48049</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>54845</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>106874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>64666</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>68883</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>129403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>